--- a/Scénarios.xlsx
+++ b/Scénarios.xlsx
@@ -24,18 +24,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>df</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>Réactions</t>
+  </si>
+  <si>
+    <t>Click sur le bouton "s'inscrire"</t>
+  </si>
+  <si>
+    <t>Ouvre la page d'inscription</t>
+  </si>
+  <si>
+    <t>S'authentifier</t>
+  </si>
+  <si>
+    <t>Affiche un message d'erreur</t>
+  </si>
+  <si>
+    <t>Les champs sont remplis</t>
+  </si>
+  <si>
+    <t>Connecte l'utilisateur a son compte</t>
+  </si>
+  <si>
+    <t>Click sur le bouton "se connecter"</t>
+  </si>
+  <si>
+    <t>Ouvre la page de connexion</t>
+  </si>
+  <si>
+    <t>Tous les champs sont justes</t>
+  </si>
+  <si>
+    <t>Click sur le bouton "valider"</t>
+  </si>
+  <si>
+    <t>Des champs sont vides</t>
+  </si>
+  <si>
+    <t>Des champs sont érronés</t>
+  </si>
+  <si>
+    <t>Enregistre le compte</t>
+  </si>
+  <si>
+    <t>Les conditions des champs ne sont pas réspéctées</t>
+  </si>
+  <si>
+    <t>Les conditions des champs sont réspéctées</t>
+  </si>
+  <si>
+    <t>Ouvre la page d'acceuil</t>
+  </si>
+  <si>
+    <t>Ouvre la page de création d'annonce</t>
+  </si>
+  <si>
+    <t>Ouvre la page des annonces de l'utilisateurs</t>
+  </si>
+  <si>
+    <t>Ajouter des annonces</t>
+  </si>
+  <si>
+    <t>Click sur le bouton "Modifier"</t>
+  </si>
+  <si>
+    <t>Ouvre la page de modifitcation de l'annonce</t>
+  </si>
+  <si>
+    <t>Supprimer ses annonces</t>
+  </si>
+  <si>
+    <t>Modifier ses annonces</t>
+  </si>
+  <si>
+    <t>Click sur le bouton "supprimer"</t>
+  </si>
+  <si>
+    <t>Demande confirmation</t>
+  </si>
+  <si>
+    <t>Click sur "annuler"</t>
+  </si>
+  <si>
+    <t>Ne supprime rien et retourne a l'état précédent</t>
+  </si>
+  <si>
+    <t>Click sur "supprimer"</t>
+  </si>
+  <si>
+    <t>Supprime l'annonce</t>
+  </si>
+  <si>
+    <t>Click sur le bouton "Ajouter une annonce"</t>
+  </si>
+  <si>
+    <t>Créé l'annonce</t>
+  </si>
+  <si>
+    <t>Modifie l'annonce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -62,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -83,30 +201,106 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E15"/>
+  <dimension ref="B1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,86 +595,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="3:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="3:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+      <c r="D24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+      <c r="D25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="8"/>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+      <c r="D35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="D36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="9"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>